--- a/RestAssured/Data/data.xlsx
+++ b/RestAssured/Data/data.xlsx
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,16 +366,19 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -382,7 +386,7 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -390,7 +394,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
     </row>
@@ -398,12 +402,13 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
